--- a/data/echoMRI/Kotz12132024.xlsx
+++ b/data/echoMRI/Kotz12132024.xlsx
@@ -1,23 +1,88 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
   <workbookPr backupFile="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carosandovalcaballero/Documents/GitHub/data/data/echoMRI/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF83A530-17DC-1946-9458-BE47C86AE345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="11355" windowHeight="9210"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" r:id="rId1" name="ExtractedScans"/>
+    <sheet name="ExtractedScans" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="ExtractedScans">ExtractedScans!$A$1:$J$5</definedName>
   </definedNames>
-  <calcPr calcId="122211" fullCalcOnLoad="true"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>RecNumber</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Fat</t>
+  </si>
+  <si>
+    <t>Lean</t>
+  </si>
+  <si>
+    <t>FreeWater</t>
+  </si>
+  <si>
+    <t>TotalWater</t>
+  </si>
+  <si>
+    <t>TimeDateDura</t>
+  </si>
+  <si>
+    <t>Accumulation</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>3720</t>
+  </si>
+  <si>
+    <t>3721</t>
+  </si>
+  <si>
+    <t>3723</t>
+  </si>
+  <si>
+    <t>3726</t>
+  </si>
+  <si>
+    <t>08:02:24 Dec 13, 2024, 34; ems</t>
+  </si>
+  <si>
+    <t>08:04:03 Dec 13, 2024, 29; ems</t>
+  </si>
+  <si>
+    <t>08:05:39 Dec 13, 2024, 34; ems</t>
+  </si>
+  <si>
+    <t>08:07:21 Dec 13, 2024, 34; ems</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
     <font>
       <sz val="10"/>
@@ -52,13 +117,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -96,7 +169,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -130,6 +203,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -164,9 +238,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -339,194 +414,163 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <cols>
+    <col min="7" max="7" width="30.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row outlineLevel="0" r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>RecNumber</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="inlineStr">
-        <is>
-          <t>Label</t>
-        </is>
-      </c>
-      <c r="C1" s="0" t="inlineStr">
-        <is>
-          <t>Fat</t>
-        </is>
-      </c>
-      <c r="D1" s="0" t="inlineStr">
-        <is>
-          <t>Lean</t>
-        </is>
-      </c>
-      <c r="E1" s="0" t="inlineStr">
-        <is>
-          <t>FreeWater</t>
-        </is>
-      </c>
-      <c r="F1" s="0" t="inlineStr">
-        <is>
-          <t>TotalWater</t>
-        </is>
-      </c>
-      <c r="G1" s="0" t="inlineStr">
-        <is>
-          <t>TimeDateDura</t>
-        </is>
-      </c>
-      <c r="H1" s="0" t="inlineStr">
-        <is>
-          <t>Accumulation</t>
-        </is>
-      </c>
-      <c r="I1" s="0" t="inlineStr">
-        <is>
-          <t>Weight</t>
-        </is>
-      </c>
-      <c r="J1" s="0" t="inlineStr">
-        <is>
-          <t>Comments</t>
-        </is>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row outlineLevel="0" r="2">
-      <c r="A2" s="0">
+    <row r="2" spans="1:10">
+      <c r="A2">
         <v>39</v>
       </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>3720</t>
-        </is>
-      </c>
-      <c r="C2" s="0">
-        <v>9.3</v>
-      </c>
-      <c r="D2" s="0">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D2">
         <v>21.77</v>
       </c>
-      <c r="E2" s="0">
-        <v>0</v>
-      </c>
-      <c r="F2" s="0">
-        <v>0</v>
-      </c>
-      <c r="G2" s="0" t="inlineStr">
-        <is>
-          <t>08:02:24 Dec 13, 2024; 34; ems</t>
-        </is>
-      </c>
-      <c r="H2" s="0">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2" s="0">
+      <c r="I2">
         <v>31.2</v>
       </c>
     </row>
-    <row outlineLevel="0" r="3">
-      <c r="A3" s="0">
+    <row r="3" spans="1:10">
+      <c r="A3">
         <v>40</v>
       </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>3721</t>
-        </is>
-      </c>
-      <c r="C3" s="0">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
         <v>11.75</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3">
         <v>24.97</v>
       </c>
-      <c r="E3" s="0">
-        <v>0</v>
-      </c>
-      <c r="F3" s="0">
-        <v>0</v>
-      </c>
-      <c r="G3" s="0" t="inlineStr">
-        <is>
-          <t>08:04:03 Dec 13, 2024; 29; ems</t>
-        </is>
-      </c>
-      <c r="H3" s="0">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="I3" s="0">
-        <v>36.77</v>
+      <c r="I3">
+        <v>36.770000000000003</v>
       </c>
     </row>
-    <row outlineLevel="0" r="4">
-      <c r="A4" s="0">
+    <row r="4" spans="1:10">
+      <c r="A4">
         <v>41</v>
       </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>3723</t>
-        </is>
-      </c>
-      <c r="C4" s="0">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
         <v>14.52</v>
       </c>
-      <c r="D4" s="0">
+      <c r="D4">
         <v>24.23</v>
       </c>
-      <c r="E4" s="0">
-        <v>0</v>
-      </c>
-      <c r="F4" s="0">
-        <v>0</v>
-      </c>
-      <c r="G4" s="0" t="inlineStr">
-        <is>
-          <t>08:05:39 Dec 13, 2024; 34; ems</t>
-        </is>
-      </c>
-      <c r="H4" s="0">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4">
         <v>1</v>
       </c>
-      <c r="I4" s="0">
+      <c r="I4">
         <v>38.47</v>
       </c>
     </row>
-    <row outlineLevel="0" r="5">
-      <c r="A5" s="0">
+    <row r="5" spans="1:10">
+      <c r="A5">
         <v>42</v>
       </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>3726</t>
-        </is>
-      </c>
-      <c r="C5" s="0">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
         <v>12.77</v>
       </c>
-      <c r="D5" s="0">
+      <c r="D5">
         <v>22.7</v>
       </c>
-      <c r="E5" s="0">
-        <v>0</v>
-      </c>
-      <c r="F5" s="0">
-        <v>0</v>
-      </c>
-      <c r="G5" s="0" t="inlineStr">
-        <is>
-          <t>08:07:21 Dec 13, 2024; 34; ems</t>
-        </is>
-      </c>
-      <c r="H5" s="0">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5">
         <v>1</v>
       </c>
-      <c r="I5" s="0">
+      <c r="I5">
         <v>35.65</v>
       </c>
     </row>

--- a/data/echoMRI/Kotz12132024.xlsx
+++ b/data/echoMRI/Kotz12132024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carosandovalcaballero/Documents/GitHub/data/data/echoMRI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF83A530-17DC-1946-9458-BE47C86AE345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B8D962-83FE-FE41-BBEC-5A53A3498278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtractedScans" sheetId="1" r:id="rId1"/>
@@ -67,16 +67,16 @@
     <t>3726</t>
   </si>
   <si>
-    <t>08:02:24 Dec 13, 2024, 34; ems</t>
-  </si>
-  <si>
-    <t>08:04:03 Dec 13, 2024, 29; ems</t>
-  </si>
-  <si>
-    <t>08:05:39 Dec 13, 2024, 34; ems</t>
-  </si>
-  <si>
-    <t>08:07:21 Dec 13, 2024, 34; ems</t>
+    <t>08:02:24 Dec 13, 2024; 34; ems</t>
+  </si>
+  <si>
+    <t>08:04:03 Dec 13, 2024; 29; ems</t>
+  </si>
+  <si>
+    <t>08:05:39 Dec 13, 2024; 34; ems</t>
+  </si>
+  <si>
+    <t>08:07:21 Dec 13, 2024; 34; ems</t>
   </si>
 </sst>
 </file>
@@ -418,12 +418,12 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="7" max="7" width="30.59765625" customWidth="1"/>
+    <col min="7" max="7" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
